--- a/gams/python/results/Q18/res_sum_Q_rO_reload.xlsx
+++ b/gams/python/results/Q18/res_sum_Q_rO_reload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\CloudDrive\Uni\WS24\Research Project\gams\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A027B9F6-46BF-4B05-B5C1-31789AF55F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C4711B-519A-40C9-9857-EB3C03CD8F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10665" yWindow="2520" windowWidth="7500" windowHeight="6000" xr2:uid="{E34C37C9-66C6-43A5-9EA3-23EEA26A2372}"/>
+    <workbookView xWindow="4180" yWindow="4180" windowWidth="28800" windowHeight="15460" xr2:uid="{E34C37C9-66C6-43A5-9EA3-23EEA26A2372}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
